--- a/POSTGRESQL/01_CRM.xlsx
+++ b/POSTGRESQL/01_CRM.xlsx
@@ -23,13 +23,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,12 +51,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,14 +431,1023 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>uuid</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>full_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>whatsapp</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>nationality</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>client_type</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>assigned_to</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>f2ef7a0f-bd5d-4714-91a6-de51bb8c5e8b</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TestUser Sim_ad038dcc</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>test.sim.ad038dcc@example.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>+628123456789</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-12-22T08:44:11.614800+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>17a532e7-1148-485a-b6f9-f4f300702716</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TestUser Sim_cfdb9611</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>test.sim.cfdb9611@example.com</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>+628123456789</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-12-22T08:52:32.456822+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>57</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>7000c83f-8759-44ce-99de-d4d25307c7a2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Test Client 3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>testclient3@example.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>anton@balizero.com</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-12-30T02:33:32.866802+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>8e08be4f-ee9c-42aa-8dd1-9cecaa194a8a</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Demo Client 4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>demo4@balizero.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>dea@balizero.com</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2025-12-30T02:42:25.471993+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>66860071-4ccb-4ec6-a26e-83c1d8ce7734</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Antonello Siano</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>antonello@test.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2025-12-31T03:18:51.229317+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>77b3612f-49ed-4f93-8ac9-202fdc50a7c5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>John Smith</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>john.smith@test.com</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>+62812345678</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>adit@balizero.com</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2025-12-31T13:53:36.083361+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>61</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5ee70de6-c03b-48c9-a0ab-6817453adcf7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>noreply@zohoaccounts.com</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>noreply@zohoaccounts.com</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2025-12-31T18:32:03.996207+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>62</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7bebcaa3-fd27-4988-b65b-bb7a98dcca0c</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>search-api@brave.com</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>search-api@brave.com</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2025-12-31T19:09:46.956528+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>67</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0c00501c-2b1c-46ff-a9b3-58a91470babc</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Antonello Siano</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>antonellosiano@gmail.com</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>+39000000000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2025-12-31T21:41:27.125655+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>68</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0e918a33-9f77-4eeb-8e76-da44b0d18fb0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Antonello Siano</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>+393334235300</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2026-01-02T02:20:05.402117+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>69</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>a34f1740-f083-4d39-aa93-f9a5ee7daa54</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ruslana Balagurak</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ruslana@balizero.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>+380967498348</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2026-01-02T08:47:39.414249+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>70</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>def4b60f-26b5-4d65-a18d-27bbd46a5bbd</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Oleksandr Ozolin</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>mandruyprosto@gmail.com</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>+380967498348</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2026-01-02T08:50:22.514659+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>72</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>33e65d42-547f-463e-8316-ee17db65fc00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ruslana Balagurak</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ruslana@gmail.com</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>+393334235312</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2026-01-02T08:55:06.447296+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>76</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>f35b1717-65cc-4b11-9a20-c80136bacf42</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Guerrino Betta</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>guerrino.betta@gmail.com</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>+62 812-3959-4303</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ari@balizero.com</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2026-01-02T09:24:46.944037+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>77</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>36e70973-8470-4cf0-b745-15a14fc2ab13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Test Error Handler Fix</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2026-01-05T00:50:49.532047+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>78</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>6c6ca674-a824-46cf-a62c-eb278d4c7ac8</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Chrome Browser Test Jan 2026 23</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>chrometest@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>+62 812 9999 0001</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2026-01-05T01:14:27.870337+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>79</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>d710996c-ccb5-447b-8c46-5498d7ab47b6</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Test Journey Client</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2026-01-05T05:38:51.687253+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>80</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>e8610220-e3a9-4094-8218-a0cc26361a28</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Simon K</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>‪+7 911 294‑28‑49‬</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>‪+7 911 294‑28‑49‬</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Russian</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ari@balizero.com</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2026-01-06T11:05:03.631463+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>81</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>9405dd28-7d8e-46a6-a17d-b0de7fd3127b</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Test Client Jan10 API</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2026-01-10T04:19:27.743305+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>82</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>88acac7a-4174-49d6-9d78-8e2f51e4a5b3</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Marco Rossi</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>marco.rossi@gmail.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>+39 333 1234567</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>+39 333 1234567</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>lead</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>adit@balizero.com</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2026-01-10T06:07:57.365633+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>83</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>c5bcbb67-7fc8-42a5-8266-49ea051ec473</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Sofia Mueller</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>sofia.mueller@gmail.com</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>+49 176 5551234</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>+49 176 5551234</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>lead</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>dea@balizero.com</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2026-01-10T06:25:19.753657+00:00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -437,14 +1458,817 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>uuid</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>client_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>practice_type_code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>priority</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>quoted_price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>assigned_to</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>start_date</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>expiry_date</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>payment_status</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>01bbafb3-bc99-4fbd-b168-f81e757b1e74</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1500.00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>unpaid</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2025-12-31T12:39:14.750285+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>c8bacacf-cb1c-49fa-9b13-6267afe3c62b</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>kitap_application</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>quotation_sent</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2025-12-31T13:53:17.690712+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>848eea2b-d2b2-4440-85bc-ea170f3a3f2f</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>pt_pma_setup</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>in_progress</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2025-12-31T13:53:17.697640+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dda68c18-5304-43a7-aacb-7d2df604e7dc</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>tax_consulting</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>waiting_documents</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2025-12-31T13:53:17.699306+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4ed09e3a-f17f-4177-ac6a-b2e3bfb2458a</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>property_purchase</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>submitted_to_gov</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2025-12-31T13:53:17.700503+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>bf25a2b7-b7fe-4f6d-bec4-25b930256789</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>kitas_application</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2025-12-31T13:53:36.091002+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>19fee3a0-8de0-4a28-9cf0-5ceeffd9a990</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>60</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>tax_consulting</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>inquiry</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>urgent</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2025-12-31T13:55:16.030377+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>41558b33-06bf-4914-b0dc-aaa0ac34e9cd</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>60</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>inquiry</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2500.00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>unpaid</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2025-12-31T14:06:50.182457+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>e3febea1-c5f3-4853-ac7f-be4897b85de1</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>68</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>inquiry</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1500.00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>unpaid</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2026-01-02T05:03:40.976803+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>eec592e5-f203-4211-87fb-121a9eca4b1a</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>67</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>quotation_sent</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1500.00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>unpaid</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2026-01-05T04:24:10.710512+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>6c9efa04-2f16-4336-bfb9-b2ae0bc8a04e</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>79</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>in_progress</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1500.00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>unpaid</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2026-01-05T05:43:27.333657+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1116fea8-e98d-4700-be50-97815871e165</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>81</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>in_progress</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>unpaid</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2026-01-10T04:53:53.843094+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>e770e33c-18a5-46a1-8aa5-c22c7bc769c8</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>81</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>3000.00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>unpaid</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2026-01-10T05:05:36.818490+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>bbace156-afdc-43aa-bf80-84d56796bcc5</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>81</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3000.00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>unpaid</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2026-01-10T05:07:57.645392+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>6a2e22b0-797f-4151-a32f-8248f27d56f5</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>81</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>3000.00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>unpaid</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2026-01-10T05:14:36.283707+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4f4f0732-2be4-47bc-895c-e5cf429f4663</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>82</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>3000.00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>unpaid</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2026-01-10T06:12:37.645918+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>63a5e39b-fce3-4ba5-b414-0b1800a54895</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>83</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1500.00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>unpaid</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2026-01-10T06:28:47.269965+00:00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -455,14 +2279,6125 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>uuid</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>client_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>practice_id</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>direction</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sentiment</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>team_member</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>798</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>86e127e5-3adb-4427-8db7-822249de609d</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2026-01-10T05:42:28.959479+00:00</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>797</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2465a5fd-0f1d-45f0-be1b-443a67d12354</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2026-01-10T05:42:17.444039+00:00</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>796</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5dab5a55-1bf8-4d8c-a1b8-ae57b0571334</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2026-01-10T05:41:58.491788+00:00</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>795</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dcbc2511-9660-415b-af38-59419a08c5e4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2026-01-10T05:41:05.500829+00:00</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>794</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>411effa7-5371-4406-b267-2d73d6631c89</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2026-01-10T05:40:39.502855+00:00</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>790</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>92be9e8f-4f6c-4179-b7a8-5aa73b889714</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2026-01-07T04:44:22.458349+00:00</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>789</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3534a84f-48d4-486f-9014-0e8ab731f5f7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2026-01-07T04:42:51.054250+00:00</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>788</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>065dcbc5-f66c-441b-95fc-dd27d5080003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2026-01-07T02:45:43.824315+00:00</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>787</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>7ca8f49b-12be-4b9d-871f-a7c98b86e5db</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2026-01-06T10:06:49.628278+00:00</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>786</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>70a4e9de-7623-49d2-9317-4cf62643f859</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2026-01-06T10:05:39.097802+00:00</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>785</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>446e4838-832d-43ab-a4c9-91a6c19b4075</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2026-01-06T10:04:23.484235+00:00</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>784</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4d7d6954-005e-41a1-9c69-20b94f4b00b4</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2026-01-06T10:03:42.278506+00:00</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>783</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>f1ad496e-ed69-4251-b8fb-82904dde947c</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2026-01-06T06:01:37.132578+00:00</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>782</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>86c09319-ebf4-4d5c-a681-0873d2a3ab55</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2026-01-06T05:55:43.947805+00:00</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>781</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>e56d5ac4-ceb5-4943-a8a6-62887364f216</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2026-01-06T05:53:57.913760+00:00</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>780</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>dcb6fef0-0c8a-4eaa-8f5c-89c8b817726b</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2026-01-06T05:53:00.720275+00:00</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>779</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>90008b5f-73ec-44d9-b433-7a995181f9e4</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2026-01-06T04:06:53.010455+00:00</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>778</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>715379c4-5451-4361-acf0-7893cbad861e</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2026-01-06T03:23:52.573616+00:00</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>777</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>43c201a4-4c2e-4626-89cd-c4661c6eff05</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2026-01-06T03:22:38.843896+00:00</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>776</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ca17839b-4de8-4d6a-b0a9-1305fff5e766</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2026-01-06T03:20:08.517040+00:00</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>775</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>c2575ced-b9d5-4f0b-b85b-1bdf3e040ec6</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2026-01-06T03:14:50.422713+00:00</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>774</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>6e56138e-7852-4737-b9ac-60de6f145922</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2026-01-06T03:13:54.593965+00:00</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>773</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>6fb73d43-7ec1-40f3-959f-9076a45c4a1d</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2026-01-06T02:52:45.426537+00:00</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>772</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>458a2918-bb1d-40da-aac4-d3f9da54c078</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2026-01-06T02:51:10.057210+00:00</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>771</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>cf973485-18fa-42fe-9e0a-d392a5bfa9cb</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2026-01-06T02:50:15.106759+00:00</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>770</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>96d50a80-4577-45db-809f-f70ad6ff7134</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2026-01-06T02:49:34.179328+00:00</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>769</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>51843d6c-430d-4fa3-b921-4aa4a9c2ac56</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2026-01-06T02:48:32.985540+00:00</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>768</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>19911ac4-d9a5-487b-b533-ab673f7902df</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2026-01-06T02:47:49.584191+00:00</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>767</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>c07f1f5f-12c0-4bcd-9c91-00296e10d745</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>2026-01-05T00:18:52.858181+00:00</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>766</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2686b2b8-385e-43b4-be69-226320c1ad66</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2026-01-04T22:54:14.459739+00:00</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>765</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>e59ce842-e504-4e4e-a9cf-769b49077122</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2026-01-04T22:53:32.153103+00:00</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>764</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>e9c0518b-557c-4d5b-945f-5b5c278b2761</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2026-01-04T22:53:13.952148+00:00</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>763</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>999b1555-bca9-4755-91ab-211ca0221e46</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2026-01-04T22:49:28.238957+00:00</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>762</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>db8d6118-9710-4968-96e7-367676708d7b</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2026-01-04T22:48:49.639701+00:00</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>761</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2546419e-7b25-4fa5-860e-e39be457a788</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2026-01-04T22:48:37.018842+00:00</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>760</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>6777f70f-315b-46e7-9fa9-3e530d7f2b0b</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2026-01-04T22:48:25.787919+00:00</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>759</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>c059239a-6a05-4c70-8c65-97b071f47fe9</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2026-01-02T05:32:31.244153+00:00</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>758</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>9f5b0a2f-c89b-4633-a1dc-85b454b5e4f5</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2026-01-02T05:31:45.057788+00:00</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>757</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2bf7d2b0-c1fc-40a5-98e1-6037fffa79d9</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2026-01-02T04:07:34.833122+00:00</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>756</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>5f9db37c-b5de-441c-8050-a56403bd36a3</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2026-01-02T03:59:42.760533+00:00</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>755</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>9683b27b-12a6-4081-a325-f0584faf6d43</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2026-01-02T03:58:47.592970+00:00</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>754</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>b5fd80ce-427f-47f3-bde1-a612fccc5dc9</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2026-01-02T03:58:12.943123+00:00</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>753</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>de1305a7-30f2-47fc-a820-a98b059d3ba2</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2026-01-02T03:57:30.569477+00:00</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>752</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>18e6f3c7-5b93-4983-95af-df1d2009013d</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>2026-01-02T03:55:50.797569+00:00</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>751</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>95a5616a-7eaa-4ea0-9087-5f86adefa754</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2026-01-02T03:55:45.508602+00:00</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>750</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>7da8b073-ad81-49d1-9a0d-8ddc0b0a4c5a</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2026-01-02T03:55:13.565788+00:00</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>749</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>edc10689-3c2c-4595-af01-fba389e2cb5f</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2026-01-02T03:54:49.277935+00:00</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>748</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>f55522e7-5fbf-472f-9f89-f8f45515f871</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2026-01-02T03:54:27.102554+00:00</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>747</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>c9ddd2bc-0429-4e3d-9ad8-52cbac15d05b</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2026-01-02T03:54:24.457862+00:00</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>746</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ddbd1244-df47-43c1-b396-1aad481690ba</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2026-01-02T03:53:21.919474+00:00</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>745</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>c45648cf-9121-4cbb-b4fc-5f4d6b92d509</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2026-01-02T03:52:45.580888+00:00</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>744</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>73e5d7f2-4ee4-4e22-9775-27383600f4dc</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2026-01-02T03:51:35.340457+00:00</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>743</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>8de0c672-5994-4066-af69-c96fcd504bab</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2026-01-02T03:50:30.372051+00:00</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>742</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ef5121b2-fcee-4177-8630-3861478f21dc</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>2026-01-02T03:49:06.415988+00:00</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>741</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>a5f467ae-9ee5-4128-bcc7-27bb57b44b62</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2026-01-02T03:48:46.854816+00:00</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>740</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>c73ba12b-2ed0-42ef-8c63-a5cc0df02f45</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2026-01-02T03:48:35.245425+00:00</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>739</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>97c324cd-ff45-4305-9cb6-c207e76fc2e6</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2026-01-02T03:48:31.504766+00:00</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>738</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>f6f1bbdb-f3ea-4d78-bc36-7e9e1fa112d2</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2026-01-02T03:47:52.954900+00:00</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>737</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>71fed42b-50ff-468f-bbb4-a6fa47ac4e28</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2026-01-02T03:47:52.291539+00:00</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>736</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>452233f2-7d1d-4f2e-833f-5185532b5439</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2026-01-02T03:27:30.463630+00:00</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>735</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>07ab0a75-bce6-4e26-89f2-c4481f588ae9</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>2026-01-02T00:15:05.969963+00:00</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>734</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>542dc4ea-0764-41fd-bce4-d76662eb474d</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2026-01-02T00:11:16.107886+00:00</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>733</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>cfd20726-4fae-4dc3-8d2b-950c2af848be</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2026-01-02T00:09:21.920202+00:00</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>732</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>8cf8a5dd-2e5b-43fc-aa64-8484daf75329</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2026-01-01T23:44:45.247604+00:00</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>731</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>278769fc-532c-4121-810c-e2506fe57ad8</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>2026-01-01T23:43:41.563690+00:00</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>730</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>8c64dd9f-4b5c-44bb-93a2-981893e7490a</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2026-01-01T21:10:48.075822+00:00</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>729</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>59270627-66de-46cb-a85c-b3c74092ef06</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>2026-01-01T21:10:14.963357+00:00</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>728</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>fbe934dc-457d-4c55-bd94-c5840ddf0666</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>2026-01-01T21:09:37.485322+00:00</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>727</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>bd2d4235-c2b0-49e0-83e9-6322a4e77fce</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>2026-01-01T21:09:01.640472+00:00</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>726</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>56b2b4ad-e751-4fd6-b928-86b4278f8cb7</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>2026-01-01T21:08:19.993914+00:00</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>725</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1ef121bc-dae2-4269-898b-6e57e52cd63a</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>2026-01-01T21:07:26.470584+00:00</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>724</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ae8eb676-e510-454c-a447-7306259889c8</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2026-01-01T21:07:00.142084+00:00</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>723</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>665a736c-89c7-4a94-9c7e-b21fb67b709b</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>2026-01-01T21:06:23.768187+00:00</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>722</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>dc9df817-a389-4606-a04e-f6a0ea308191</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>2026-01-01T21:05:17.063398+00:00</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>721</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>c7715bfc-14d3-4fa8-bbd3-772ce318339f</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>2026-01-01T21:04:39.660875+00:00</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>720</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>4be90ba1-01c2-49e2-9886-538452accbb6</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>2026-01-01T21:03:45.488602+00:00</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>719</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>f51ea29f-70da-421a-8493-d564dfdd3c0b</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>2026-01-01T21:02:40.633051+00:00</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>718</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ffc16061-2004-491c-a8c2-617ab51092ba</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>2026-01-01T21:01:55.278015+00:00</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>717</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>163dcecf-5e03-4bc2-9454-de547abbf740</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>2026-01-01T21:00:50.293136+00:00</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>716</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>55fdb36f-8075-414a-8803-bb48ec1385f5</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>2026-01-01T20:59:24.552326+00:00</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>715</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>86209362-c264-42c5-881a-f6bf76448ffa</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>2026-01-01T20:57:54.399203+00:00</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>714</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>21fc94b1-1e80-4d5c-9f76-ab85d884903b</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>2026-01-01T20:57:10.730984+00:00</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>713</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>c54c5861-d3f2-481c-b2af-e03a7eafdb40</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>2026-01-01T20:56:17.270207+00:00</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>712</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>cedf3047-afae-49b1-ba93-097cfd970966</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2026-01-01T20:54:39.458782+00:00</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>711</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0956d6bd-9ce3-40d6-b594-163a9a1bb58c</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>2026-01-01T20:53:23.595859+00:00</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>710</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>80cc8ae4-0557-42a2-a86b-1b267ef7b195</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>2026-01-01T20:15:26.546861+00:00</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>709</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2e654cde-5cf7-4a9c-bd1f-deba4a16f608</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>2026-01-01T20:14:00.246931+00:00</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>708</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>556f4d6d-95d5-44ac-85bc-26bb8ac8bfbc</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>2026-01-01T20:12:38.870169+00:00</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>707</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0e202f91-93f2-4ccd-94e2-10943963ea6c</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>2026-01-01T20:10:55.582787+00:00</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>706</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>8c2cf07b-5c3f-48db-bff3-ef0d224b2a72</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>2026-01-01T20:09:45.379809+00:00</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>705</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>5863707d-4069-47ef-b87e-1e1611945768</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2026-01-01T20:08:58.050963+00:00</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>704</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>b41c1d35-b6bf-4d68-8c11-9a11864be80f</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>2026-01-01T20:08:09.686101+00:00</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>703</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>f6902ff3-64e7-43e8-b34f-277a9e8e8176</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>2026-01-01T20:06:55.937351+00:00</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>702</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>d260278b-5a17-4625-a3b0-939e8203ad22</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>2026-01-01T20:05:10.286902+00:00</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>701</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>0c8cb7df-e5be-4fe3-9149-1c3731d27ce2</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>2026-01-01T20:04:00.701651+00:00</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>700</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>5389e2ab-9947-4b77-babd-afe1ca4502b3</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>2026-01-01T20:03:02.441601+00:00</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>699</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>4d486e06-3f36-4659-95b3-bb0d7e1e8ece</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>2026-01-01T20:01:41.873717+00:00</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>698</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1ad416a4-733b-41a7-a6bc-4079b7d8740b</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>2026-01-01T19:59:14.693232+00:00</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>697</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>15249369-6fb9-42b4-97e4-fdbd2c57ddf5</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>2026-01-01T19:58:12.892757+00:00</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>696</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>6fe8b62b-c2e9-449c-be3e-3bd4d03a1c55</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>2026-01-01T19:57:01.813783+00:00</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>695</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>26ca4687-171f-4afd-8aa8-c20bb01a545e</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>2026-01-01T19:55:58.181009+00:00</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>694</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>7ac2b6c1-99c4-489a-b9cb-415b009d1284</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>2026-01-01T19:54:48.114601+00:00</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>693</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>6b393fc1-935b-48ba-b046-ff703d6acc75</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>2026-01-01T19:52:01.462143+00:00</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>692</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>75984f9d-79e4-4d88-aa26-c216beff13e4</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>2026-01-01T19:51:05.874483+00:00</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>691</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ba32305c-a69d-442e-aff1-1ad997ee9785</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>2026-01-01T19:42:09.663089+00:00</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>690</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>6c75e564-8b9d-4497-bebb-82034818464d</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>2026-01-01T19:40:46.870249+00:00</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>689</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>4b338502-40c9-455b-ba04-e4a60907f4fb</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>2026-01-01T19:39:18.870362+00:00</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>688</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>16b22aea-81af-4202-b70d-8861dc86e610</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>2026-01-01T19:38:26.486695+00:00</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>687</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>521d156c-77c0-4b39-9524-80ff05981ebe</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>2026-01-01T19:37:07.078718+00:00</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>686</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>0e1cdf4f-df26-4abb-bc5f-00b621fd23bb</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>2026-01-01T19:36:04.932214+00:00</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>685</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>3b320b05-0bf5-4469-98f4-b98cd66b33d1</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>2026-01-01T19:34:51.271150+00:00</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>684</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>f7b492a7-516f-40b8-aac2-b9a82d7b9875</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>2026-01-01T19:33:19.006699+00:00</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>683</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>dba8a9b8-7c71-4abe-8219-46b23dd5784c</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>2026-01-01T19:31:44.908693+00:00</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>682</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>e23f3a3c-793b-4e51-8886-abe79bee9328</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>2026-01-01T19:30:11.039764+00:00</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>681</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>259eaafb-a136-455d-afeb-615d836bedd6</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>2026-01-01T18:05:29.242950+00:00</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>680</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ab837844-8cba-403f-867e-2f3fe9f19639</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>2026-01-01T18:01:16.969850+00:00</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>679</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>7551b1c1-b3b2-4121-9f2f-c938fb9a3c11</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>2026-01-01T17:59:03.377316+00:00</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>678</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>8908239f-9d87-434f-8c7f-a328028c217b</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>2026-01-01T17:57:22.065225+00:00</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>677</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>9994d221-4caf-4f72-be40-0e105418f801</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>2026-01-01T17:55:50.238847+00:00</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>676</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>62a53481-7664-4d82-b207-2804b76860f1</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>2026-01-01T17:53:38.014757+00:00</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>675</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ff335b12-2c51-4fc9-9cd3-1d543d507683</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>2026-01-01T17:50:49.074570+00:00</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>674</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>4abec33d-cf18-42b9-aa1c-de9fbe929535</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>2026-01-01T17:49:00.593434+00:00</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>673</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>5ca6976e-5d5d-47c5-838d-60c7ddfc81ce</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>2026-01-01T17:46:49.472168+00:00</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>672</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>0069ee65-b3fd-48db-8f43-d1749190dfc4</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>2026-01-01T17:42:50.232001+00:00</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>671</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>8f24e51d-4548-4b07-85f9-01a7cc34593d</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>2026-01-01T17:40:14.697047+00:00</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>670</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>83fc5922-2374-45b4-a71d-ef47f3dc63db</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>web_chat</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Chat conversation</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>inbound</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>2026-01-01T17:38:06.367925+00:00</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -473,14 +8408,327 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>base_price</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>typical_duration_days</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>required_documents</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>is_active</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>kitas_application</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>KITAS Visa Application</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Indonesian limited stay visa application</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>visa</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1500.00</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>["passport", "photos", "sponsor_letter", "bank_statement"]</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2025-11-27T22:54:14.823725+00:00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-11-27T22:54:14.823725+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>kitap_application</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>KITAP Permanent Permit</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Indonesian permanent stay permit application</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>visa</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2500.00</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>60</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>["passport", "kitas", "photos", "tax_reports"]</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-11-27T22:54:14.823725+00:00</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-11-27T22:54:14.823725+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>pt_pma_setup</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PT PMA Company Setup</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Foreign investment company establishment</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>corporate</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3000.00</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>45</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>["passport", "ktp", "npwp", "company_plan"]</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-11-27T22:54:14.823725+00:00</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-11-27T22:54:14.823725+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>property_purchase</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Property Purchase</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Real estate transaction assistance</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>property</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2000.00</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>30</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>["passport", "npwp", "identity_card"]</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2025-11-27T22:54:14.823725+00:00</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2025-11-27T22:54:14.823725+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>tax_consulting</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Tax Consulting</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tax planning and compliance services</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>tax</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>["financial_documents", "previous_tax_returns"]</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-11-27T22:54:14.823725+00:00</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2025-11-27T22:54:14.823725+00:00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -491,14 +8739,193 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>client_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>email_notifications</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>whatsapp_notifications</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>timezone</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Asia/Jakarta</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-12-30T02:30:59.592581+00:00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-12-30T02:30:59.592581+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>57</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Asia/Jakarta</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-12-30T02:33:56.973070+00:00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-12-30T02:33:56.973070+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>58</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Asia/Jakarta</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-12-30T02:47:05.406088+00:00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-12-30T02:47:05.406088+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>59</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Asia/Jakarta</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-12-31T04:07:09.918036+00:00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-12-31T04:07:09.918036+00:00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -509,14 +8936,183 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>client_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>expires_at</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>used_at</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>test.sim.ad038dcc@example.com</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2026-01-02T02:26:13.819332+00:00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-12-30T02:26:13.820199+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>test.sim.cfdb9611@example.com</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2026-01-02T02:30:26.796077+00:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-12-30T02:30:59.592581+00:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-12-30T02:30:26.797200+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>57</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>testclient3@example.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2026-01-02T02:33:32.869219+00:00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-12-30T02:33:56.973070+00:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-12-30T02:33:32.869930+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>58</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>demo4@balizero.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2026-01-02T02:42:25.473871+00:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-12-30T02:47:05.406088+00:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-12-30T02:42:25.474762+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>59</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>antonello@test.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2026-01-03T03:18:51.233297+00:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-12-31T04:07:09.918036+00:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-12-31T03:18:51.233919+00:00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -527,14 +9123,151 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>updated_by</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>renewal_alert_days</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Days before expiry to send renewal alerts</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-12-16T22:32:16.982201+00:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>auto_assign_enabled</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Automatically assign new inquiries to team members</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-12-16T22:32:16.982201+00:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>default_currency</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>"IDR"</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Default currency for pricing</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-12-16T22:32:16.982201+00:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>business_hours</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{"end": "18:00", "start": "09:00", "timezone": "Asia/Makassar"}</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Business hours for SLA tracking</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-12-16T22:32:16.982201+00:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>